--- a/nodes_source_analyses/energy/energy_heater_for_heat_network_geothermal.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_heater_for_heat_network_geothermal.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/energy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -275,9 +283,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -408,16 +413,20 @@
       <t>Ecofys-ISE, iea-etsap</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -556,11 +565,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <u/>
@@ -1241,7 +1245,7 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1252,55 +1256,55 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1309,7 +1313,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1322,12 +1326,12 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1336,12 +1340,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1356,10 +1360,10 @@
     <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1370,10 +1374,10 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1395,9 +1399,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1413,31 +1417,31 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1701,80 +1705,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1856,7 +1795,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2293,52 +2232,52 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1">
+    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>19</v>
@@ -2347,29 +2286,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="72" t="s">
         <v>63</v>
       </c>
       <c r="C9" s="73"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="74"/>
       <c r="C10" s="75"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="74" t="s">
         <v>64</v>
@@ -2378,33 +2317,33 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="74"/>
       <c r="C12" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="74"/>
       <c r="C13" s="77" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="74"/>
       <c r="C14" s="75" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="74"/>
       <c r="C15" s="75"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="74" t="s">
         <v>69</v>
@@ -2413,49 +2352,49 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="74"/>
       <c r="C17" s="79" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="74"/>
       <c r="C18" s="80" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="74"/>
       <c r="C19" s="81" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="82"/>
       <c r="C20" s="83" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="82"/>
       <c r="C21" s="84" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="82"/>
       <c r="C22" s="85" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="82"/>
       <c r="C23" s="86" t="s">
         <v>77</v>
@@ -2464,49 +2403,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="E17" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="34" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="34" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="34" customWidth="1"/>
     <col min="3" max="3" width="46" style="34" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="34" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="34" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="34" customWidth="1"/>
     <col min="7" max="7" width="45" style="34" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="34" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="34"/>
+    <col min="8" max="8" width="5.140625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
       <c r="G1" s="32"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="140" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C2" s="141"/>
       <c r="D2" s="141"/>
@@ -2514,7 +2448,7 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="143"/>
       <c r="C3" s="144"/>
       <c r="D3" s="144"/>
@@ -2522,7 +2456,7 @@
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="146"/>
       <c r="C4" s="147"/>
       <c r="D4" s="147"/>
@@ -2530,10 +2464,10 @@
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="32"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="35"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -2544,7 +2478,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="87"/>
       <c r="C7" s="15" t="s">
         <v>31</v>
@@ -2565,7 +2499,7 @@
       </c>
       <c r="J7" s="94"/>
     </row>
-    <row r="8" spans="2:11" s="41" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="41" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
       <c r="C8" s="14"/>
       <c r="D8" s="28"/>
@@ -2576,10 +2510,10 @@
       <c r="I8" s="14"/>
       <c r="J8" s="42"/>
     </row>
-    <row r="9" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="20"/>
       <c r="C9" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="14"/>
@@ -2589,10 +2523,10 @@
       <c r="I9" s="14"/>
       <c r="J9" s="42"/>
     </row>
-    <row r="10" spans="2:11" s="41" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="41" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="20"/>
       <c r="C10" s="100" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>5</v>
@@ -2608,7 +2542,7 @@
       </c>
       <c r="J10" s="42"/>
     </row>
-    <row r="11" spans="2:11" ht="16" thickBot="1">
+    <row r="11" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37"/>
       <c r="C11" s="33" t="s">
         <v>33</v>
@@ -2628,7 +2562,7 @@
       <c r="J11" s="95"/>
       <c r="K11" s="32"/>
     </row>
-    <row r="12" spans="2:11" ht="16" thickBot="1">
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
       <c r="C12" s="33" t="s">
         <v>35</v>
@@ -2648,7 +2582,7 @@
       <c r="J12" s="95"/>
       <c r="K12" s="32"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="37"/>
       <c r="C13" s="33" t="s">
         <v>10</v>
@@ -2668,7 +2602,7 @@
       <c r="J13" s="95"/>
       <c r="K13" s="32"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="37"/>
       <c r="C14" s="33" t="s">
         <v>37</v>
@@ -2688,7 +2622,7 @@
       <c r="J14" s="95"/>
       <c r="K14" s="32"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="37"/>
       <c r="C15" s="33" t="s">
         <v>38</v>
@@ -2708,7 +2642,7 @@
       <c r="J15" s="95"/>
       <c r="K15" s="32"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="37"/>
       <c r="C16" s="33" t="s">
         <v>39</v>
@@ -2729,7 +2663,7 @@
       </c>
       <c r="J16" s="95"/>
     </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="33" t="s">
         <v>40</v>
@@ -2747,11 +2681,11 @@
       </c>
       <c r="H17" s="33"/>
       <c r="I17" s="132" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J17" s="95"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="37"/>
       <c r="C18" s="70"/>
       <c r="D18" s="90"/>
@@ -2762,10 +2696,10 @@
       <c r="I18" s="32"/>
       <c r="J18" s="95"/>
     </row>
-    <row r="19" spans="2:10" ht="16" thickBot="1">
+    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="37"/>
       <c r="C19" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="90"/>
       <c r="E19" s="91"/>
@@ -2775,7 +2709,7 @@
       <c r="I19" s="32"/>
       <c r="J19" s="95"/>
     </row>
-    <row r="20" spans="2:10" ht="16" thickBot="1">
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="37"/>
       <c r="C20" s="33" t="s">
         <v>41</v>
@@ -2793,11 +2727,11 @@
       </c>
       <c r="H20" s="33"/>
       <c r="I20" s="130" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J20" s="95"/>
     </row>
-    <row r="21" spans="2:10" ht="16" thickBot="1">
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="37"/>
       <c r="C21" s="33" t="s">
         <v>42</v>
@@ -2818,7 +2752,7 @@
       </c>
       <c r="J21" s="95"/>
     </row>
-    <row r="22" spans="2:10" ht="16" thickBot="1">
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="37"/>
       <c r="C22" s="33" t="s">
         <v>11</v>
@@ -2839,7 +2773,7 @@
       </c>
       <c r="J22" s="95"/>
     </row>
-    <row r="23" spans="2:10" ht="16" thickBot="1">
+    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="37"/>
       <c r="C23" s="33" t="s">
         <v>43</v>
@@ -2860,7 +2794,7 @@
       </c>
       <c r="J23" s="95"/>
     </row>
-    <row r="24" spans="2:10" ht="16" thickBot="1">
+    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37"/>
       <c r="C24" s="33" t="s">
         <v>44</v>
@@ -2878,11 +2812,11 @@
       </c>
       <c r="H24" s="33"/>
       <c r="I24" s="130" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J24" s="95"/>
     </row>
-    <row r="25" spans="2:10" ht="16" thickBot="1">
+    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="33" t="s">
         <v>45</v>
@@ -2904,7 +2838,7 @@
       </c>
       <c r="J25" s="95"/>
     </row>
-    <row r="26" spans="2:10" ht="16" thickBot="1">
+    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="33" t="s">
         <v>46</v>
@@ -2925,7 +2859,7 @@
       </c>
       <c r="J26" s="95"/>
     </row>
-    <row r="27" spans="2:10" ht="16" thickBot="1">
+    <row r="27" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37"/>
       <c r="C27" s="33" t="s">
         <v>49</v>
@@ -2946,7 +2880,7 @@
       </c>
       <c r="J27" s="95"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="37"/>
       <c r="C28" s="33"/>
       <c r="D28" s="19"/>
@@ -2957,7 +2891,7 @@
       <c r="I28" s="32"/>
       <c r="J28" s="95"/>
     </row>
-    <row r="29" spans="2:10" ht="16" thickBot="1">
+    <row r="29" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
       <c r="C29" s="14" t="s">
         <v>8</v>
@@ -2970,7 +2904,7 @@
       <c r="I29" s="32"/>
       <c r="J29" s="95"/>
     </row>
-    <row r="30" spans="2:10" ht="16" thickBot="1">
+    <row r="30" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="C30" s="33" t="s">
         <v>36</v>
@@ -2991,7 +2925,7 @@
       </c>
       <c r="J30" s="95"/>
     </row>
-    <row r="31" spans="2:10" ht="16" thickBot="1">
+    <row r="31" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37"/>
       <c r="C31" s="33" t="s">
         <v>47</v>
@@ -3009,11 +2943,11 @@
       </c>
       <c r="H31" s="33"/>
       <c r="I31" s="131" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J31" s="95"/>
     </row>
-    <row r="32" spans="2:10" ht="16" thickBot="1">
+    <row r="32" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="37"/>
       <c r="C32" s="33" t="s">
         <v>48</v>
@@ -3031,11 +2965,11 @@
       </c>
       <c r="H32" s="33"/>
       <c r="I32" s="139" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J32" s="95"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="37"/>
       <c r="C33" s="33" t="s">
         <v>34</v>
@@ -3054,7 +2988,7 @@
       </c>
       <c r="J33" s="95"/>
     </row>
-    <row r="34" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="34" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="38"/>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
@@ -3071,43 +3005,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3122,26 +3019,25 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="103" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="103" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="103" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="103" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="103" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="103" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="103" customWidth="1"/>
-    <col min="8" max="8" width="3.125" style="103" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="104" customWidth="1"/>
-    <col min="10" max="10" width="2.375" style="104" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="104" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="103" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="103" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="103" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="103" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="103" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="103" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" style="103" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="104" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="104" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="104" customWidth="1"/>
     <col min="12" max="12" width="3" style="104" customWidth="1"/>
     <col min="13" max="13" width="60" style="103" customWidth="1"/>
-    <col min="14" max="16384" width="10.625" style="103"/>
+    <col min="14" max="16384" width="10.7109375" style="103"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16" thickBot="1"/>
-    <row r="2" spans="2:13">
+    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="105"/>
       <c r="C2" s="106"/>
       <c r="D2" s="106"/>
@@ -3155,10 +3051,10 @@
       <c r="L2" s="107"/>
       <c r="M2" s="106"/>
     </row>
-    <row r="3" spans="2:13" s="21" customFormat="1">
+    <row r="3" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="20"/>
       <c r="C3" s="97" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -3170,18 +3066,18 @@
       </c>
       <c r="H3" s="97"/>
       <c r="I3" s="66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J3" s="66"/>
       <c r="K3" s="66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L3" s="66"/>
       <c r="M3" s="97" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="108"/>
       <c r="C4" s="109"/>
       <c r="D4" s="109"/>
@@ -3195,10 +3091,10 @@
       <c r="L4" s="96"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="2:13" ht="16" thickBot="1">
+    <row r="5" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="108"/>
       <c r="C5" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
@@ -3211,10 +3107,10 @@
       <c r="L5" s="10"/>
       <c r="M5" s="100"/>
     </row>
-    <row r="6" spans="2:13" ht="16" thickBot="1">
+    <row r="6" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="108"/>
       <c r="C6" s="133" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="101"/>
       <c r="E6" s="101"/>
@@ -3235,7 +3131,7 @@
       <c r="L6" s="110"/>
       <c r="M6" s="100"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="108"/>
       <c r="C7" s="113"/>
       <c r="D7" s="113"/>
@@ -3249,7 +3145,7 @@
       <c r="L7" s="115"/>
       <c r="M7" s="116"/>
     </row>
-    <row r="8" spans="2:13" ht="16" thickBot="1">
+    <row r="8" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="108"/>
       <c r="C8" s="29" t="s">
         <v>8</v>
@@ -3265,7 +3161,7 @@
       <c r="L8" s="103"/>
       <c r="M8" s="30"/>
     </row>
-    <row r="9" spans="2:13" ht="16" thickBot="1">
+    <row r="9" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="108"/>
       <c r="C9" s="118" t="s">
         <v>1</v>
@@ -3288,10 +3184,10 @@
       </c>
       <c r="L9" s="103"/>
       <c r="M9" s="99" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="16" thickBot="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="108"/>
       <c r="C10" s="119" t="s">
         <v>6</v>
@@ -3318,7 +3214,7 @@
       <c r="L10" s="103"/>
       <c r="M10" s="100"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="108"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -3332,10 +3228,10 @@
       <c r="L11" s="103"/>
       <c r="M11" s="100"/>
     </row>
-    <row r="12" spans="2:13" ht="16" thickBot="1">
+    <row r="12" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="108"/>
       <c r="C12" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -3348,10 +3244,10 @@
       <c r="L12" s="103"/>
       <c r="M12" s="100"/>
     </row>
-    <row r="13" spans="2:13" ht="16" thickBot="1">
+    <row r="13" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="108"/>
       <c r="C13" s="101" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
@@ -3369,7 +3265,7 @@
       <c r="L13" s="103"/>
       <c r="M13" s="100"/>
     </row>
-    <row r="14" spans="2:13" ht="16" thickBot="1">
+    <row r="14" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="108"/>
       <c r="C14" s="121" t="s">
         <v>9</v>
@@ -3377,7 +3273,7 @@
       <c r="D14" s="121"/>
       <c r="E14" s="121"/>
       <c r="F14" s="111" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G14" s="117">
         <v>800</v>
@@ -3392,10 +3288,10 @@
       <c r="L14" s="127"/>
       <c r="M14" s="100"/>
     </row>
-    <row r="15" spans="2:13" ht="16" thickBot="1">
+    <row r="15" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="108"/>
       <c r="C15" s="101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
@@ -3413,15 +3309,15 @@
       <c r="L15" s="103"/>
       <c r="M15" s="100"/>
     </row>
-    <row r="16" spans="2:13" ht="16" thickBot="1">
+    <row r="16" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="108"/>
       <c r="C16" s="101" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="109" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G16" s="102">
         <v>50</v>
@@ -3436,10 +3332,10 @@
       <c r="L16" s="103"/>
       <c r="M16" s="100"/>
     </row>
-    <row r="17" spans="2:13" ht="16" thickBot="1">
+    <row r="17" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="108"/>
       <c r="C17" s="101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="122"/>
       <c r="E17" s="122"/>
@@ -3456,10 +3352,10 @@
       <c r="L17" s="103"/>
       <c r="M17" s="100"/>
     </row>
-    <row r="18" spans="2:13" ht="16" thickBot="1">
+    <row r="18" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="108"/>
       <c r="C18" s="101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="123"/>
       <c r="E18" s="123"/>
@@ -3479,11 +3375,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3498,22 +3389,22 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="45" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="45" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="45" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="45" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="45" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="45" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="34.625" style="46" customWidth="1"/>
-    <col min="11" max="11" width="60.5" style="45" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="45"/>
+    <col min="1" max="1" width="3.28515625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="45" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="45" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="45" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="34.5703125" style="46" customWidth="1"/>
+    <col min="11" max="11" width="60.42578125" style="45" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="47"/>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
@@ -3525,7 +3416,7 @@
       <c r="J2" s="49"/>
       <c r="K2" s="48"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
         <v>21</v>
@@ -3539,7 +3430,7 @@
       <c r="J3" s="52"/>
       <c r="K3" s="53"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="50"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
@@ -3551,7 +3442,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="55"/>
       <c r="C5" s="56" t="s">
         <v>29</v>
@@ -3567,19 +3458,19 @@
         <v>30</v>
       </c>
       <c r="H5" s="56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I5" s="56" t="s">
         <v>58</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K5" s="56" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="50"/>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
@@ -3591,31 +3482,31 @@
       <c r="J6" s="52"/>
       <c r="K6" s="51"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="50"/>
       <c r="C7" s="64"/>
       <c r="D7" s="58"/>
       <c r="E7" s="53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F7" s="53" t="s">
         <v>60</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I7" s="54"/>
       <c r="J7" s="54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K7" s="68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="50"/>
       <c r="C8" s="59" t="s">
         <v>1</v>
@@ -3629,7 +3520,7 @@
       <c r="J8" s="54"/>
       <c r="K8" s="69"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="50"/>
       <c r="C9" s="58" t="s">
         <v>61</v>
@@ -3643,7 +3534,7 @@
       <c r="J9" s="54"/>
       <c r="K9" s="69"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="50"/>
       <c r="C10" s="63"/>
       <c r="D10" s="63"/>
@@ -3655,12 +3546,12 @@
       <c r="J10" s="61"/>
       <c r="K10" s="58"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="50"/>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
       <c r="E11" s="53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F11" s="58" t="s">
         <v>60</v>
@@ -3673,16 +3564,16 @@
       </c>
       <c r="I11" s="58"/>
       <c r="J11" s="65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K11" s="62" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="50"/>
       <c r="C12" s="59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" s="58"/>
       <c r="E12" s="53"/>
@@ -3693,10 +3584,10 @@
       <c r="J12" s="65"/>
       <c r="K12" s="62"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="50"/>
       <c r="C13" s="59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="58"/>
       <c r="E13" s="53"/>
@@ -3707,7 +3598,7 @@
       <c r="J13" s="65"/>
       <c r="K13" s="58"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="50"/>
       <c r="C14" s="59" t="s">
         <v>6</v>
@@ -3721,10 +3612,10 @@
       <c r="J14" s="65"/>
       <c r="K14" s="58"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="50"/>
       <c r="C15" s="59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="58"/>
       <c r="E15" s="53"/>
@@ -3741,11 +3632,6 @@
   <ignoredErrors>
     <ignoredError sqref="G7:H7" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3757,22 +3643,22 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="134" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="134" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="134" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="134"/>
+    <col min="1" max="1" width="5.28515625" style="134" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="134" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="134" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="134"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="16" thickBot="1"/>
-    <row r="2" spans="2:13" s="21" customFormat="1">
+    <row r="1" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="137"/>
       <c r="C2" s="138" t="s">
         <v>73</v>
       </c>
       <c r="D2" s="138" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E2" s="138"/>
       <c r="F2" s="138"/>
@@ -3784,7 +3670,7 @@
       <c r="L2" s="138"/>
       <c r="M2" s="138"/>
     </row>
-    <row r="3" spans="2:13">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="135"/>
       <c r="C3" s="136"/>
       <c r="D3" s="136"/>
@@ -3798,10 +3684,10 @@
       <c r="L3" s="136"/>
       <c r="M3" s="136"/>
     </row>
-    <row r="4" spans="2:13">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B4" s="135"/>
       <c r="C4" s="136" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="136"/>
       <c r="E4" s="136"/>
@@ -3814,10 +3700,10 @@
       <c r="L4" s="136"/>
       <c r="M4" s="136"/>
     </row>
-    <row r="5" spans="2:13">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B5" s="135"/>
       <c r="C5" s="136" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="136"/>
       <c r="E5" s="136"/>
@@ -3830,7 +3716,7 @@
       <c r="L5" s="136"/>
       <c r="M5" s="136"/>
     </row>
-    <row r="6" spans="2:13">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="135"/>
       <c r="C6" s="136"/>
       <c r="D6" s="136"/>
@@ -3844,7 +3730,7 @@
       <c r="L6" s="136"/>
       <c r="M6" s="136"/>
     </row>
-    <row r="7" spans="2:13">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B7" s="135"/>
       <c r="C7" s="136"/>
       <c r="D7" s="136"/>
@@ -3858,7 +3744,7 @@
       <c r="L7" s="136"/>
       <c r="M7" s="136"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="135"/>
       <c r="C8" s="136"/>
       <c r="D8" s="136"/>
@@ -3872,7 +3758,7 @@
       <c r="L8" s="136"/>
       <c r="M8" s="136"/>
     </row>
-    <row r="9" spans="2:13">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="135"/>
       <c r="C9" s="136"/>
       <c r="D9" s="136"/>
@@ -3886,7 +3772,7 @@
       <c r="L9" s="136"/>
       <c r="M9" s="136"/>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="135"/>
       <c r="C10" s="136"/>
       <c r="D10" s="136"/>
@@ -3900,7 +3786,7 @@
       <c r="L10" s="136"/>
       <c r="M10" s="136"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="135"/>
       <c r="C11" s="136"/>
       <c r="D11" s="136"/>
@@ -3914,7 +3800,7 @@
       <c r="L11" s="136"/>
       <c r="M11" s="136"/>
     </row>
-    <row r="12" spans="2:13">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B12" s="135"/>
       <c r="C12" s="136"/>
       <c r="D12" s="136"/>
@@ -3928,7 +3814,7 @@
       <c r="L12" s="136"/>
       <c r="M12" s="136"/>
     </row>
-    <row r="13" spans="2:13">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="135"/>
       <c r="C13" s="136"/>
       <c r="D13" s="136"/>
@@ -3942,7 +3828,7 @@
       <c r="L13" s="136"/>
       <c r="M13" s="136"/>
     </row>
-    <row r="14" spans="2:13">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="135"/>
       <c r="C14" s="136"/>
       <c r="D14" s="136"/>
@@ -3956,7 +3842,7 @@
       <c r="L14" s="136"/>
       <c r="M14" s="136"/>
     </row>
-    <row r="15" spans="2:13">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B15" s="135"/>
       <c r="C15" s="136"/>
       <c r="D15" s="136"/>
@@ -3970,7 +3856,7 @@
       <c r="L15" s="136"/>
       <c r="M15" s="136"/>
     </row>
-    <row r="16" spans="2:13">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="135"/>
       <c r="C16" s="136"/>
       <c r="D16" s="136"/>
@@ -3984,7 +3870,7 @@
       <c r="L16" s="136"/>
       <c r="M16" s="136"/>
     </row>
-    <row r="17" spans="2:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="135"/>
       <c r="C17" s="136"/>
       <c r="D17" s="136">
@@ -4002,16 +3888,16 @@
       <c r="L17" s="136"/>
       <c r="M17" s="136"/>
     </row>
-    <row r="18" spans="2:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" s="135"/>
       <c r="C18" s="136" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D18" s="136">
         <v>800</v>
       </c>
       <c r="E18" s="136" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" s="136"/>
       <c r="G18" s="136"/>
@@ -4022,16 +3908,16 @@
       <c r="L18" s="136"/>
       <c r="M18" s="136"/>
     </row>
-    <row r="19" spans="2:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="135"/>
       <c r="C19" s="136" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D19" s="136">
         <v>50</v>
       </c>
       <c r="E19" s="136" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F19" s="136"/>
       <c r="G19" s="136"/>
@@ -4042,16 +3928,16 @@
       <c r="L19" s="136"/>
       <c r="M19" s="136"/>
     </row>
-    <row r="20" spans="2:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" s="135"/>
       <c r="C20" s="136" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" s="136">
         <v>30</v>
       </c>
       <c r="E20" s="136" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20" s="136"/>
       <c r="G20" s="136"/>
@@ -4062,7 +3948,7 @@
       <c r="L20" s="136"/>
       <c r="M20" s="136"/>
     </row>
-    <row r="21" spans="2:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="135"/>
       <c r="C21" s="136"/>
       <c r="D21" s="136"/>
@@ -4076,7 +3962,7 @@
       <c r="L21" s="136"/>
       <c r="M21" s="136"/>
     </row>
-    <row r="22" spans="2:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" s="135"/>
       <c r="C22" s="136"/>
       <c r="D22" s="136"/>
@@ -4090,7 +3976,7 @@
       <c r="L22" s="136"/>
       <c r="M22" s="136"/>
     </row>
-    <row r="23" spans="2:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="135"/>
       <c r="C23" s="136"/>
       <c r="D23" s="136"/>
@@ -4104,7 +3990,7 @@
       <c r="L23" s="136"/>
       <c r="M23" s="136"/>
     </row>
-    <row r="24" spans="2:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="135"/>
       <c r="C24" s="136"/>
       <c r="D24" s="136"/>
@@ -4118,7 +4004,7 @@
       <c r="L24" s="136"/>
       <c r="M24" s="136"/>
     </row>
-    <row r="25" spans="2:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="135"/>
       <c r="C25" s="136"/>
       <c r="D25" s="136"/>
@@ -4132,7 +4018,7 @@
       <c r="L25" s="136"/>
       <c r="M25" s="136"/>
     </row>
-    <row r="26" spans="2:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" s="135"/>
       <c r="C26" s="136"/>
       <c r="D26" s="136"/>
@@ -4146,7 +4032,7 @@
       <c r="L26" s="136"/>
       <c r="M26" s="136"/>
     </row>
-    <row r="27" spans="2:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" s="135"/>
       <c r="C27" s="136"/>
       <c r="D27" s="136"/>
@@ -4160,7 +4046,7 @@
       <c r="L27" s="136"/>
       <c r="M27" s="136"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="135"/>
       <c r="C28" s="136"/>
       <c r="D28" s="136"/>
@@ -4174,7 +4060,7 @@
       <c r="L28" s="136"/>
       <c r="M28" s="136"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" s="135"/>
       <c r="C29" s="136"/>
       <c r="D29" s="136"/>
@@ -4188,7 +4074,7 @@
       <c r="L29" s="136"/>
       <c r="M29" s="136"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" s="135"/>
       <c r="C30" s="136"/>
       <c r="D30" s="136"/>
@@ -4202,10 +4088,10 @@
       <c r="L30" s="136"/>
       <c r="M30" s="136"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="135"/>
       <c r="C31" s="136" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="136"/>
       <c r="E31" s="136"/>
@@ -4218,10 +4104,10 @@
       <c r="L31" s="136"/>
       <c r="M31" s="136"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" s="135"/>
       <c r="C32" s="136" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D32" s="136"/>
       <c r="E32" s="136"/>
@@ -4234,7 +4120,7 @@
       <c r="L32" s="136"/>
       <c r="M32" s="136"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="135"/>
       <c r="C33" s="136"/>
       <c r="D33" s="136"/>
@@ -4248,7 +4134,7 @@
       <c r="L33" s="136"/>
       <c r="M33" s="136"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="135"/>
       <c r="C34" s="136"/>
       <c r="D34" s="136"/>
@@ -4262,7 +4148,7 @@
       <c r="L34" s="136"/>
       <c r="M34" s="136"/>
     </row>
-    <row r="35" spans="2:13">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="135"/>
       <c r="C35" s="136"/>
       <c r="D35" s="136"/>
@@ -4276,7 +4162,7 @@
       <c r="L35" s="136"/>
       <c r="M35" s="136"/>
     </row>
-    <row r="36" spans="2:13">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" s="135"/>
       <c r="C36" s="136"/>
       <c r="D36" s="136"/>
@@ -4290,7 +4176,7 @@
       <c r="L36" s="136"/>
       <c r="M36" s="136"/>
     </row>
-    <row r="37" spans="2:13">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="135"/>
       <c r="C37" s="136"/>
       <c r="D37" s="136"/>
@@ -4304,7 +4190,7 @@
       <c r="L37" s="136"/>
       <c r="M37" s="136"/>
     </row>
-    <row r="38" spans="2:13">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="135"/>
       <c r="C38" s="136"/>
       <c r="D38" s="136"/>
@@ -4318,7 +4204,7 @@
       <c r="L38" s="136"/>
       <c r="M38" s="136"/>
     </row>
-    <row r="39" spans="2:13">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" s="135"/>
       <c r="C39" s="136"/>
       <c r="D39" s="136"/>
@@ -4332,7 +4218,7 @@
       <c r="L39" s="136"/>
       <c r="M39" s="136"/>
     </row>
-    <row r="40" spans="2:13">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" s="135"/>
       <c r="C40" s="136"/>
       <c r="D40" s="136"/>
@@ -4346,7 +4232,7 @@
       <c r="L40" s="136"/>
       <c r="M40" s="136"/>
     </row>
-    <row r="41" spans="2:13">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" s="135"/>
       <c r="C41" s="136"/>
       <c r="D41" s="136"/>
@@ -4360,16 +4246,16 @@
       <c r="L41" s="136"/>
       <c r="M41" s="136"/>
     </row>
-    <row r="42" spans="2:13">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" s="135"/>
       <c r="C42" s="136" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D42" s="136">
         <v>24</v>
       </c>
       <c r="E42" s="136" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F42" s="136"/>
       <c r="G42" s="136"/>
@@ -4380,16 +4266,16 @@
       <c r="L42" s="136"/>
       <c r="M42" s="136"/>
     </row>
-    <row r="43" spans="2:13">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" s="135"/>
       <c r="C43" s="136" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D43" s="136">
         <v>30</v>
       </c>
       <c r="E43" s="136" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F43" s="136"/>
       <c r="G43" s="136"/>
@@ -4400,7 +4286,7 @@
       <c r="L43" s="136"/>
       <c r="M43" s="136"/>
     </row>
-    <row r="44" spans="2:13">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" s="135"/>
       <c r="C44" s="136"/>
       <c r="D44" s="136"/>
@@ -4414,7 +4300,7 @@
       <c r="L44" s="136"/>
       <c r="M44" s="136"/>
     </row>
-    <row r="45" spans="2:13">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" s="135"/>
       <c r="C45" s="136"/>
       <c r="D45" s="136"/>
@@ -4428,7 +4314,7 @@
       <c r="L45" s="136"/>
       <c r="M45" s="136"/>
     </row>
-    <row r="46" spans="2:13">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="135"/>
       <c r="C46" s="136"/>
       <c r="D46" s="136"/>
@@ -4442,7 +4328,7 @@
       <c r="L46" s="136"/>
       <c r="M46" s="136"/>
     </row>
-    <row r="47" spans="2:13">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" s="135"/>
       <c r="C47" s="136"/>
       <c r="D47" s="136"/>
@@ -4456,7 +4342,7 @@
       <c r="L47" s="136"/>
       <c r="M47" s="136"/>
     </row>
-    <row r="48" spans="2:13">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" s="135"/>
       <c r="C48" s="136"/>
       <c r="D48" s="136"/>
@@ -4470,7 +4356,7 @@
       <c r="L48" s="136"/>
       <c r="M48" s="136"/>
     </row>
-    <row r="49" spans="2:13">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" s="135"/>
       <c r="C49" s="136"/>
       <c r="D49" s="136"/>
@@ -4488,10 +4374,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>